--- a/data/MSC/essua/PlanoCurso_9272_Terapia da Fala.xlsx
+++ b/data/MSC/essua/PlanoCurso_9272_Terapia da Fala.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/an/Library/CloudStorage/Dropbox/Toze/continUA/CE/levantamento CE/MSC/essua/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uapt33090-my.sharepoint.com/personal/rita_almeida_ua_pt/Documents/Documents/Levantamento UCs Mestrado + CE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29C5559-5B89-5C45-8459-F1B35D6AE3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{02D3DF11-F889-4D9C-AE69-2B9722E226AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D377CBDA-7A8B-4F4D-904D-B1525DBD7BC8}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15720" xr2:uid="{A8EDD4C9-210D-4C0A-B558-8FD7E5F0E9E7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A8EDD4C9-210D-4C0A-B558-8FD7E5F0E9E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Consulta" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="84">
   <si>
     <t>PERTURBAÇÕES DA LINGUAGEM PRIMÁRIAS: DA AVALIAÇÃO À INTERVENÇÃO DIFERENCIADA</t>
   </si>
@@ -240,6 +240,9 @@
     <t>Nº Total de Páginas: 1   (Num. Máx. Registos por Página: 150000)</t>
   </si>
   <si>
+    <t>Ramo - Linguagem e Comunicação</t>
+  </si>
+  <si>
     <t>AVALIAÇÃO INSTRUMENTAL</t>
   </si>
   <si>
@@ -264,6 +267,9 @@
     <t>NEUROLIGICAL COMMUNICATION AND SWALLOWING DISORDERS IN THE ELDERLY</t>
   </si>
   <si>
+    <t>Ramo - Perturbações Neurológicas no Adulto</t>
+  </si>
+  <si>
     <t>AUDIÇÃO, EQUILÍBRIO E INTEGRAÇÃO SENSORIAL</t>
   </si>
   <si>
@@ -280,6 +286,9 @@
   </si>
   <si>
     <t>SPEECH PRODUCTION AND PERCEPTION</t>
+  </si>
+  <si>
+    <t>Ramo - Fala e Audição</t>
   </si>
 </sst>
 </file>
@@ -332,12 +341,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -352,13 +367,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,7 +395,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -693,236 +711,155 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1EBBF4-B955-479B-BA2E-C8EF834540F5}">
-  <dimension ref="A1:AE28"/>
+  <dimension ref="A1:AE35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD22"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="103.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="103.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="90.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.83203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="3.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="30.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>40965</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>6</v>
-      </c>
-      <c r="I2">
-        <v>6</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2" t="s">
-        <v>4</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W2" t="s">
-        <v>6</v>
-      </c>
-      <c r="X2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>40967</v>
-      </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -955,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
         <v>0</v>
@@ -1000,15 +937,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>40972</v>
+        <v>40967</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -1038,16 +975,16 @@
         <v>4</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -1086,15 +1023,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>41320</v>
+        <v>40972</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>1</v>
@@ -1124,13 +1061,13 @@
         <v>4</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5">
         <v>2</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>20</v>
@@ -1154,13 +1091,13 @@
         <v>5</v>
       </c>
       <c r="W5" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="X5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Y5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1172,15 +1109,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>41618</v>
+        <v>41320</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -1219,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q6">
         <v>0</v>
@@ -1240,13 +1177,13 @@
         <v>5</v>
       </c>
       <c r="W6" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X6" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1258,36 +1195,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>40966</v>
+        <v>41618</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7">
         <v>6</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -1344,15 +1281,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>41319</v>
+        <v>40966</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1391,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="P8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
@@ -1412,13 +1349,13 @@
         <v>5</v>
       </c>
       <c r="W8" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="X8" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Z8">
         <v>0</v>
@@ -1430,15 +1367,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>41621</v>
+        <v>41319</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1453,13 +1390,13 @@
         <v>2</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -1471,19 +1408,19 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q9">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1516,36 +1453,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>49991</v>
+        <v>41621</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I10">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1566,10 +1503,10 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1581,7 +1518,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="W10" t="s">
+        <v>15</v>
+      </c>
+      <c r="X10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>17</v>
       </c>
       <c r="Z10">
         <v>0</v>
@@ -1593,18 +1539,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>40967</v>
+        <v>49991</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
         <v>2</v>
@@ -1616,10 +1562,10 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I11">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -1634,7 +1580,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -1658,16 +1604,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="s">
-        <v>5</v>
-      </c>
-      <c r="W11" t="s">
-        <v>6</v>
-      </c>
-      <c r="X11" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="Z11">
         <v>0</v>
@@ -1679,273 +1616,115 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>40972</v>
-      </c>
-      <c r="B12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12" t="s">
-        <v>2</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>6</v>
-      </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>2</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>20</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12" t="s">
-        <v>5</v>
-      </c>
-      <c r="W12" t="s">
-        <v>6</v>
-      </c>
-      <c r="X12" t="s">
-        <v>7</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>41321</v>
-      </c>
-      <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13" t="s">
-        <v>2</v>
-      </c>
-      <c r="F13" t="s">
-        <v>3</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>6</v>
-      </c>
-      <c r="I13">
-        <v>6</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" t="s">
-        <v>4</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <v>1</v>
-      </c>
-      <c r="P13">
-        <v>20</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13" t="s">
-        <v>5</v>
-      </c>
-      <c r="W13" t="s">
-        <v>15</v>
-      </c>
-      <c r="X13" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>41322</v>
-      </c>
-      <c r="B14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" t="s">
-        <v>70</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>6</v>
-      </c>
-      <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>1</v>
-      </c>
-      <c r="L14" t="s">
-        <v>4</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>2</v>
-      </c>
-      <c r="O14">
-        <v>1</v>
-      </c>
-      <c r="P14">
-        <v>20</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14" t="s">
-        <v>5</v>
-      </c>
-      <c r="W14" t="s">
-        <v>15</v>
-      </c>
-      <c r="X14" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>41618</v>
+        <v>40967</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1978,10 +1757,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -2023,36 +1802,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>41323</v>
+        <v>40972</v>
       </c>
       <c r="B16" t="s">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16">
         <v>6</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -2061,13 +1840,13 @@
         <v>4</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>2</v>
       </c>
       <c r="O16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>20</v>
@@ -2091,13 +1870,13 @@
         <v>5</v>
       </c>
       <c r="W16" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="X16" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="Y16" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="Z16">
         <v>0</v>
@@ -2109,36 +1888,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>41324</v>
+        <v>41321</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17">
         <v>6</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J17">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>1</v>
@@ -2195,36 +1974,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>41621</v>
+        <v>41322</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H18">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J18">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -2236,19 +2015,19 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q18">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -2281,18 +2060,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>49991</v>
+        <v>41618</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" t="s">
         <v>2</v>
@@ -2304,10 +2083,10 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="I19">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2322,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -2346,7 +2125,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="W19" t="s">
+        <v>6</v>
+      </c>
+      <c r="X19" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>8</v>
       </c>
       <c r="Z19">
         <v>0</v>
@@ -2358,36 +2146,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>40967</v>
+        <v>41323</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F20" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20">
         <v>6</v>
       </c>
       <c r="I20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K20">
         <v>1</v>
@@ -2399,13 +2187,13 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -2426,13 +2214,13 @@
         <v>5</v>
       </c>
       <c r="W20" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X20" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Y20" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z20">
         <v>0</v>
@@ -2444,36 +2232,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>40972</v>
+        <v>41324</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>6</v>
       </c>
       <c r="I21">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K21">
         <v>1</v>
@@ -2482,13 +2270,13 @@
         <v>4</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>2</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21">
         <v>20</v>
@@ -2512,13 +2300,13 @@
         <v>5</v>
       </c>
       <c r="W21" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="X21" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="Y21" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -2530,36 +2318,36 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>41321</v>
+        <v>41621</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="G22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H22">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I22">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -2571,19 +2359,19 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2616,18 +2404,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>41618</v>
+        <v>49991</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" t="s">
         <v>2</v>
@@ -2639,10 +2427,10 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="I23">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2657,10 +2445,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
@@ -2681,445 +2469,910 @@
         <v>0</v>
       </c>
       <c r="V23" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="S26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="U26" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="V26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="W26" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="X26" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y26" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z26" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB26" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AC26" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD26" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE26" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A27" s="7">
+        <v>40967</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" s="7">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="7">
+        <v>1</v>
+      </c>
+      <c r="H27" s="7">
+        <v>6</v>
+      </c>
+      <c r="I27" s="7">
+        <v>6</v>
+      </c>
+      <c r="J27" s="7">
+        <v>0</v>
+      </c>
+      <c r="K27" s="7">
+        <v>1</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3</v>
+      </c>
+      <c r="O27" s="7">
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="7">
+        <v>0</v>
+      </c>
+      <c r="R27" s="7">
+        <v>0</v>
+      </c>
+      <c r="S27" s="7">
+        <v>0</v>
+      </c>
+      <c r="T27" s="7">
+        <v>0</v>
+      </c>
+      <c r="U27" s="7">
+        <v>0</v>
+      </c>
+      <c r="V27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W23" t="s">
-        <v>6</v>
-      </c>
-      <c r="X23" t="s">
+      <c r="W27" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X27" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Y27" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A24">
+      <c r="Z27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="7">
+        <v>40972</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D28" s="7">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="7">
+        <v>1</v>
+      </c>
+      <c r="H28" s="7">
+        <v>6</v>
+      </c>
+      <c r="I28" s="7">
+        <v>6</v>
+      </c>
+      <c r="J28" s="7">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" s="7">
+        <v>1</v>
+      </c>
+      <c r="N28" s="7">
+        <v>2</v>
+      </c>
+      <c r="O28" s="7">
+        <v>0</v>
+      </c>
+      <c r="P28" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>0</v>
+      </c>
+      <c r="R28" s="7">
+        <v>0</v>
+      </c>
+      <c r="S28" s="7">
+        <v>0</v>
+      </c>
+      <c r="T28" s="7">
+        <v>0</v>
+      </c>
+      <c r="U28" s="7">
+        <v>0</v>
+      </c>
+      <c r="V28" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W28" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X28" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y28" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="7"/>
+      <c r="AB28" s="7"/>
+      <c r="AC28" s="7"/>
+      <c r="AD28" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="7">
+        <v>41321</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="7">
+        <v>1</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7">
+        <v>6</v>
+      </c>
+      <c r="I29" s="7">
+        <v>6</v>
+      </c>
+      <c r="J29" s="7">
+        <v>0</v>
+      </c>
+      <c r="K29" s="7">
+        <v>1</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2</v>
+      </c>
+      <c r="O29" s="7">
+        <v>1</v>
+      </c>
+      <c r="P29" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>0</v>
+      </c>
+      <c r="R29" s="7">
+        <v>0</v>
+      </c>
+      <c r="S29" s="7">
+        <v>0</v>
+      </c>
+      <c r="T29" s="7">
+        <v>0</v>
+      </c>
+      <c r="U29" s="7">
+        <v>0</v>
+      </c>
+      <c r="V29" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W29" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="X29" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A30" s="7">
+        <v>41618</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="7">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7">
+        <v>6</v>
+      </c>
+      <c r="I30" s="7">
+        <v>6</v>
+      </c>
+      <c r="J30" s="7">
+        <v>0</v>
+      </c>
+      <c r="K30" s="7">
+        <v>1</v>
+      </c>
+      <c r="L30" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="7">
+        <v>2</v>
+      </c>
+      <c r="O30" s="7">
+        <v>1</v>
+      </c>
+      <c r="P30" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="7">
+        <v>0</v>
+      </c>
+      <c r="R30" s="7">
+        <v>0</v>
+      </c>
+      <c r="S30" s="7">
+        <v>0</v>
+      </c>
+      <c r="T30" s="7">
+        <v>0</v>
+      </c>
+      <c r="U30" s="7">
+        <v>0</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="X30" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y30" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31" s="7">
         <v>41677</v>
       </c>
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>2</v>
-      </c>
-      <c r="F24" t="s">
+      <c r="B31" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="7">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G24">
-        <v>1</v>
-      </c>
-      <c r="H24">
-        <v>6</v>
-      </c>
-      <c r="I24">
-        <v>6</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>1</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="G31" s="7">
+        <v>1</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6</v>
+      </c>
+      <c r="I31" s="7">
+        <v>6</v>
+      </c>
+      <c r="J31" s="7">
+        <v>0</v>
+      </c>
+      <c r="K31" s="7">
+        <v>1</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>2</v>
-      </c>
-      <c r="O24">
-        <v>1</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24" t="s">
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="7">
+        <v>2</v>
+      </c>
+      <c r="O31" s="7">
+        <v>1</v>
+      </c>
+      <c r="P31" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="7">
+        <v>0</v>
+      </c>
+      <c r="R31" s="7">
+        <v>0</v>
+      </c>
+      <c r="S31" s="7">
+        <v>0</v>
+      </c>
+      <c r="T31" s="7">
+        <v>0</v>
+      </c>
+      <c r="U31" s="7">
+        <v>0</v>
+      </c>
+      <c r="V31" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W31" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X31" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A25">
+      <c r="Z31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
         <v>41621</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B32" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
-      <c r="E25" t="s">
+      <c r="D32" s="7">
+        <v>1</v>
+      </c>
+      <c r="E32" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F32" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G25">
-        <v>2</v>
-      </c>
-      <c r="H25">
+      <c r="G32" s="7">
+        <v>2</v>
+      </c>
+      <c r="H32" s="7">
         <v>18</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="7">
         <v>18</v>
       </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25" t="s">
+      <c r="K32" s="7">
+        <v>1</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="7">
+        <v>0</v>
+      </c>
+      <c r="O32" s="7">
+        <v>0</v>
+      </c>
+      <c r="P32" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="7">
         <v>45</v>
       </c>
-      <c r="R25">
+      <c r="R32" s="7">
         <v>60</v>
       </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25" t="s">
+      <c r="S32" s="7">
+        <v>0</v>
+      </c>
+      <c r="T32" s="7">
+        <v>0</v>
+      </c>
+      <c r="U32" s="7">
+        <v>0</v>
+      </c>
+      <c r="V32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W32" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="X25" t="s">
+      <c r="X32" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y32" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A26">
+      <c r="Z32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
         <v>41678</v>
       </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>78</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="B33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F33" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G26">
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <v>6</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>6</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="G33" s="7">
+        <v>2</v>
+      </c>
+      <c r="H33" s="7">
+        <v>6</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="7">
+        <v>6</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>2</v>
-      </c>
-      <c r="O26">
-        <v>1</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="7">
+        <v>2</v>
+      </c>
+      <c r="O33" s="7">
+        <v>1</v>
+      </c>
+      <c r="P33" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="7">
+        <v>0</v>
+      </c>
+      <c r="R33" s="7">
+        <v>0</v>
+      </c>
+      <c r="S33" s="7">
+        <v>0</v>
+      </c>
+      <c r="T33" s="7">
+        <v>0</v>
+      </c>
+      <c r="U33" s="7">
+        <v>0</v>
+      </c>
+      <c r="V33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W26" t="s">
+      <c r="W33" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="X26" t="s">
+      <c r="X33" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Y33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A27">
+      <c r="Z33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" s="7">
         <v>41679</v>
       </c>
-      <c r="B27" t="s">
-        <v>79</v>
-      </c>
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="B34" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="7">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F34" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>6</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>6</v>
-      </c>
-      <c r="K27">
-        <v>1</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="G34" s="7">
+        <v>2</v>
+      </c>
+      <c r="H34" s="7">
+        <v>6</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="7">
+        <v>6</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+      <c r="L34" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>2</v>
-      </c>
-      <c r="O27">
-        <v>1</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27" t="s">
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="7">
+        <v>2</v>
+      </c>
+      <c r="O34" s="7">
+        <v>1</v>
+      </c>
+      <c r="P34" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>0</v>
+      </c>
+      <c r="R34" s="7">
+        <v>0</v>
+      </c>
+      <c r="S34" s="7">
+        <v>0</v>
+      </c>
+      <c r="T34" s="7">
+        <v>0</v>
+      </c>
+      <c r="U34" s="7">
+        <v>0</v>
+      </c>
+      <c r="V34" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="W27" t="s">
+      <c r="W34" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="X27" t="s">
+      <c r="X34" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Y34" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.2">
-      <c r="A28">
+      <c r="Z34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A35" s="7">
         <v>49991</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B35" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C35" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D28">
-        <v>2</v>
-      </c>
-      <c r="E28" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="D35" s="7">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
+      <c r="G35" s="7">
+        <v>1</v>
+      </c>
+      <c r="H35" s="7">
         <v>30</v>
       </c>
-      <c r="I28">
+      <c r="I35" s="7">
         <v>30</v>
       </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>1</v>
-      </c>
-      <c r="L28" t="s">
+      <c r="J35" s="7">
+        <v>0</v>
+      </c>
+      <c r="K35" s="7">
+        <v>1</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="M28">
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28" t="s">
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="7">
+        <v>0</v>
+      </c>
+      <c r="O35" s="7">
+        <v>0</v>
+      </c>
+      <c r="P35" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>0</v>
+      </c>
+      <c r="R35" s="7">
+        <v>0</v>
+      </c>
+      <c r="S35" s="7">
+        <v>0</v>
+      </c>
+      <c r="T35" s="7">
+        <v>0</v>
+      </c>
+      <c r="U35" s="7">
+        <v>0</v>
+      </c>
+      <c r="V35" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="7">
         <v>0</v>
       </c>
     </row>
@@ -3134,29 +3387,29 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:1" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>66</v>
       </c>
